--- a/AdvanceSeleniumGC/testdata/testscriptpractice (2).xlsx
+++ b/AdvanceSeleniumGC/testdata/testscriptpractice (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="org" sheetId="5" r:id="rId3"/>
     <sheet name="contacts" sheetId="6" r:id="rId4"/>
     <sheet name="product" sheetId="7" r:id="rId5"/>
+    <sheet name="fkart" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
   <si>
     <t>browser</t>
   </si>
@@ -288,6 +289,102 @@
   </si>
   <si>
     <t>blackberry phone</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F34 5G (Electric Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹12,999</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F34 5G (Mystic Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M14 5G (Smoky Teal, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹11,497</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F34 5G (Orchid Violet, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹14,999</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M14 5G (Icy Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹11,990</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F54 5G (Meteor Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹22,999</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M14 5G (ICY Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹10,987</t>
+  </si>
+  <si>
+    <t>SAMSUNG Guru FM Plus SM-B110E/D</t>
+  </si>
+  <si>
+    <t>₹1,599</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F14 5G (B.A.E. Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F15 5G (Jazzy Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹14,499</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M14 5G (Berry Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹13,989</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F14 5G (GOAT Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F15 5G (Groovy Violet, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹11,347</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S22 5G (Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹36,999</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F14 5G (OMG Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹10,990</t>
+  </si>
+  <si>
+    <t>₹10,881</t>
+  </si>
+  <si>
+    <t>₹15,999</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F15 5G (Ash Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG GT-E1215ZWAINS</t>
+  </si>
+  <si>
+    <t>₹1,390</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1324,4 +1421,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>